--- a/doc/网页前端设计.xlsx
+++ b/doc/网页前端设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="人员" sheetId="7" r:id="rId4"/>
     <sheet name="社区" sheetId="8" r:id="rId5"/>
     <sheet name="产品" sheetId="9" r:id="rId6"/>
-    <sheet name="工艺" sheetId="10" r:id="rId7"/>
+    <sheet name="--工--艺--" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -747,6 +747,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,16 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1949,10 +1949,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -2000,15 +2000,15 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="42" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="30"/>
@@ -2038,11 +2038,11 @@
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="42"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -2064,11 +2064,11 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="42"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -2352,85 +2352,85 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="41" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31" t="s">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
+      <c r="N20" s="34"/>
+      <c r="O20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31" t="s">
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="32"/>
+      <c r="R20" s="35"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="33"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="33"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="37" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="30"/>
@@ -2447,12 +2447,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="33"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -2467,12 +2467,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="33"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2487,12 +2487,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="33"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -2507,12 +2507,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="33"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -2527,12 +2527,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="33"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -2547,12 +2547,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="33"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -2567,12 +2567,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="33"/>
+      <c r="R29" s="36"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -2587,12 +2587,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="33"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -2607,12 +2607,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="36"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -2627,12 +2627,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="R32" s="36"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -2647,12 +2647,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="33"/>
+      <c r="R33" s="36"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -2667,12 +2667,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="33"/>
+      <c r="R34" s="36"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -2687,12 +2687,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="36"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -2707,27 +2707,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="33"/>
+      <c r="R36" s="36"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -2772,19 +2772,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="E4:F6"/>
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="I4:J6"/>
-    <mergeCell ref="K4:L6"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="J10:L11"/>
-    <mergeCell ref="J14:L15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="N12:Q15"/>
-    <mergeCell ref="O20:P22"/>
-    <mergeCell ref="Q20:R22"/>
     <mergeCell ref="C23:R37"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="E20:F22"/>
@@ -2800,6 +2787,19 @@
     <mergeCell ref="O4:P6"/>
     <mergeCell ref="Q4:R6"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="J10:L11"/>
+    <mergeCell ref="J14:L15"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="N12:Q15"/>
+    <mergeCell ref="O20:P22"/>
+    <mergeCell ref="Q20:R22"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="E4:F6"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="I4:J6"/>
+    <mergeCell ref="K4:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,10 +2837,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -2879,15 +2879,15 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="33" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="42" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="30"/>
@@ -2917,11 +2917,11 @@
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="42"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -2946,11 +2946,11 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="42"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -3000,7 +3000,7 @@
       <c r="C8" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="44" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="47" t="s">
@@ -3015,22 +3015,22 @@
         <v>15</v>
       </c>
       <c r="J8" s="49"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
+      <c r="N8" s="34"/>
+      <c r="O8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="32"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
@@ -3038,46 +3038,46 @@
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="42"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="42"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="33"/>
+      <c r="R9" s="36"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="42"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="33"/>
+      <c r="R10" s="36"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="30"/>
@@ -3094,14 +3094,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="33"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -3116,12 +3116,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="33"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -3136,12 +3136,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="33"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -3156,12 +3156,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="33"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -3176,12 +3176,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="33"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -3196,12 +3196,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="33"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -3216,12 +3216,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="33"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -3236,12 +3236,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="33"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -3256,12 +3256,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="33"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -3276,12 +3276,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="33"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -3296,12 +3296,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="33"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -3316,12 +3316,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="33"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -3336,12 +3336,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="33"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -3356,12 +3356,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="33"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -3376,12 +3376,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="33"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -3396,12 +3396,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="33"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -3416,12 +3416,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="33"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -3436,12 +3436,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="33"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -3456,12 +3456,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="33"/>
+      <c r="R29" s="36"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -3476,12 +3476,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="33"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -3496,12 +3496,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="36"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -3516,12 +3516,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="R32" s="36"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -3536,12 +3536,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="33"/>
+      <c r="R33" s="36"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -3556,12 +3556,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="33"/>
+      <c r="R34" s="36"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -3576,12 +3576,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="36"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -3596,27 +3596,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="33"/>
+      <c r="R36" s="36"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -3661,12 +3661,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M8:N10"/>
-    <mergeCell ref="O8:P10"/>
-    <mergeCell ref="Q8:R10"/>
-    <mergeCell ref="M4:N6"/>
-    <mergeCell ref="O4:P6"/>
-    <mergeCell ref="Q4:R6"/>
     <mergeCell ref="S8:S10"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="R2:R3"/>
@@ -3683,6 +3677,12 @@
     <mergeCell ref="G4:H6"/>
     <mergeCell ref="I4:J6"/>
     <mergeCell ref="K4:L6"/>
+    <mergeCell ref="M8:N10"/>
+    <mergeCell ref="O8:P10"/>
+    <mergeCell ref="Q8:R10"/>
+    <mergeCell ref="M4:N6"/>
+    <mergeCell ref="O4:P6"/>
+    <mergeCell ref="Q4:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3694,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:R37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3720,10 +3720,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -3769,11 +3769,11 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="31"/>
       <c r="M4" s="30" t="s">
         <v>11</v>
       </c>
@@ -3803,9 +3803,9 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="51"/>
-      <c r="L5" s="44"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
@@ -3832,9 +3832,9 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="44"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -3880,41 +3880,41 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="41" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -3923,18 +3923,18 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="33"/>
+      <c r="R9" s="36"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -3943,12 +3943,12 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="33"/>
+      <c r="R10" s="36"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="30"/>
@@ -3965,14 +3965,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="33"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -3987,12 +3987,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="33"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -4007,12 +4007,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="33"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -4027,12 +4027,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="33"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4047,12 +4047,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="33"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -4067,12 +4067,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="33"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -4087,12 +4087,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="33"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -4107,12 +4107,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="33"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -4127,12 +4127,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="33"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -4147,12 +4147,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="33"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -4167,12 +4167,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="33"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -4187,12 +4187,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="33"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -4207,12 +4207,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="33"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -4227,12 +4227,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="33"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -4247,12 +4247,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="33"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -4267,12 +4267,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="33"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -4287,12 +4287,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="33"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -4307,12 +4307,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="33"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -4327,12 +4327,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="33"/>
+      <c r="R29" s="36"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -4347,12 +4347,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="33"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -4367,12 +4367,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="36"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -4387,12 +4387,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="R32" s="36"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -4407,12 +4407,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="33"/>
+      <c r="R33" s="36"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -4427,12 +4427,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="33"/>
+      <c r="R34" s="36"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -4447,12 +4447,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="36"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -4467,27 +4467,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="33"/>
+      <c r="R36" s="36"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -4559,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4585,10 +4585,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -4628,7 +4628,7 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="52" t="s">
         <v>10</v>
       </c>
@@ -4641,10 +4641,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="30"/>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="31"/>
       <c r="S4" s="10"/>
       <c r="U4" s="29" t="s">
         <v>47</v>
@@ -4662,15 +4662,15 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
       <c r="S5" s="10"/>
       <c r="U5" s="29" t="s">
         <v>46</v>
@@ -4688,15 +4688,15 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="52"/>
       <c r="L6" s="53"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
       <c r="S6" s="10"/>
       <c r="U6" s="29" t="s">
         <v>48</v>
@@ -4739,35 +4739,35 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -4782,12 +4782,12 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="33"/>
+      <c r="R9" s="36"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -4802,12 +4802,12 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="33"/>
+      <c r="R10" s="36"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="30"/>
@@ -4824,14 +4824,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="33"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -4846,12 +4846,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="33"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -4866,12 +4866,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="33"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -4886,12 +4886,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="33"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4906,12 +4906,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="33"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -4926,12 +4926,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="33"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -4946,12 +4946,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="33"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -4966,12 +4966,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="33"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -4986,12 +4986,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="33"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -5006,12 +5006,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="33"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -5026,12 +5026,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="33"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -5046,12 +5046,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="33"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -5066,12 +5066,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="33"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -5086,12 +5086,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="33"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -5106,12 +5106,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="33"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -5126,12 +5126,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="33"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -5146,12 +5146,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="33"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -5166,12 +5166,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="33"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -5186,12 +5186,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="33"/>
+      <c r="R29" s="36"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -5206,12 +5206,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="33"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -5226,12 +5226,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="36"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -5246,12 +5246,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="R32" s="36"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -5266,12 +5266,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="33"/>
+      <c r="R33" s="36"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -5286,12 +5286,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="33"/>
+      <c r="R34" s="36"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -5306,12 +5306,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="36"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -5326,27 +5326,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="33"/>
+      <c r="R36" s="36"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -5444,10 +5444,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -5493,15 +5493,15 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="52" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="53"/>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="44"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="30" t="s">
         <v>12</v>
       </c>
@@ -5530,11 +5530,11 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="53"/>
@@ -5559,11 +5559,11 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="52"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="53"/>
@@ -5607,33 +5607,33 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -5648,12 +5648,12 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="33"/>
+      <c r="R9" s="36"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -5668,12 +5668,12 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="33"/>
+      <c r="R10" s="36"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="30"/>
@@ -5690,14 +5690,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="33"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -5712,12 +5712,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="33"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -5732,12 +5732,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="33"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -5752,12 +5752,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="33"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -5772,12 +5772,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="33"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -5792,12 +5792,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="33"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -5812,12 +5812,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="33"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -5832,12 +5832,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="33"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -5852,12 +5852,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="33"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -5872,12 +5872,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="33"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -5892,12 +5892,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="33"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -5912,12 +5912,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="33"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -5932,12 +5932,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="33"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -5952,12 +5952,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="33"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -5972,12 +5972,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="33"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -5992,12 +5992,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="33"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -6012,12 +6012,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="33"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -6032,12 +6032,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="33"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -6052,12 +6052,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="33"/>
+      <c r="R29" s="36"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -6072,12 +6072,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="33"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -6092,12 +6092,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="36"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -6112,12 +6112,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="R32" s="36"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -6132,12 +6132,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="33"/>
+      <c r="R33" s="36"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -6152,12 +6152,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="33"/>
+      <c r="R34" s="36"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -6172,12 +6172,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="36"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -6192,27 +6192,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="33"/>
+      <c r="R36" s="36"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -6310,10 +6310,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -6353,7 +6353,7 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="52" t="s">
         <v>10</v>
       </c>
@@ -6362,10 +6362,10 @@
         <v>11</v>
       </c>
       <c r="N4" s="53"/>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="44"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="53" t="s">
         <v>13</v>
       </c>
@@ -6387,13 +6387,13 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
       <c r="S5" s="10"/>
@@ -6416,13 +6416,13 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="52"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="10"/>
@@ -6473,32 +6473,32 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="30"/>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="30"/>
@@ -6562,14 +6562,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="33"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -6584,12 +6584,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="33"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -6604,12 +6604,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="33"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -6624,12 +6624,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="33"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -6644,12 +6644,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="33"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -6664,12 +6664,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="33"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -6684,12 +6684,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="33"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -6704,12 +6704,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="33"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -6724,12 +6724,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="33"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -6744,12 +6744,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="33"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -6764,12 +6764,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="33"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -6784,12 +6784,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="33"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -6804,12 +6804,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="33"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -6824,12 +6824,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="33"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -6844,12 +6844,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="33"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -6864,12 +6864,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="33"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -6884,12 +6884,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="33"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -6904,12 +6904,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="33"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -6924,12 +6924,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="33"/>
+      <c r="R29" s="36"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -6944,12 +6944,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="33"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -6964,12 +6964,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="36"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -6984,12 +6984,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="R32" s="36"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -7004,12 +7004,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="33"/>
+      <c r="R33" s="36"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -7024,12 +7024,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="33"/>
+      <c r="R34" s="36"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -7044,12 +7044,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="36"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -7064,27 +7064,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="33"/>
+      <c r="R36" s="36"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -7128,10 +7128,10 @@
       <c r="S39" s="18"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="K44" s="30"/>
@@ -7147,11 +7147,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K43:N45"/>
-    <mergeCell ref="G8:J10"/>
-    <mergeCell ref="K8:L10"/>
-    <mergeCell ref="M8:N10"/>
-    <mergeCell ref="O8:P10"/>
     <mergeCell ref="S8:S10"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="R2:R3"/>
@@ -7167,6 +7162,11 @@
     <mergeCell ref="Q8:R10"/>
     <mergeCell ref="C11:R37"/>
     <mergeCell ref="C8:F10"/>
+    <mergeCell ref="K43:N45"/>
+    <mergeCell ref="G8:J10"/>
+    <mergeCell ref="K8:L10"/>
+    <mergeCell ref="M8:N10"/>
+    <mergeCell ref="O8:P10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/网页前端设计.xlsx
+++ b/doc/网页前端设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -747,25 +747,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -780,6 +765,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,7 +777,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1923,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20:R22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1949,10 +1949,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -2000,15 +2000,15 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="41" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="30"/>
@@ -2038,11 +2038,11 @@
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -2064,11 +2064,11 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="33"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -2352,85 +2352,85 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="44" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34" t="s">
+      <c r="L20" s="37"/>
+      <c r="M20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34" t="s">
+      <c r="N20" s="37"/>
+      <c r="O20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34" t="s">
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="35"/>
+      <c r="R20" s="43"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="33"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="33"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="31" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="30"/>
@@ -2447,12 +2447,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -2467,12 +2467,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2487,12 +2487,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -2507,12 +2507,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -2527,12 +2527,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -2547,12 +2547,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -2567,12 +2567,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="36"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -2587,12 +2587,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="36"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -2607,12 +2607,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -2627,12 +2627,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -2647,12 +2647,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -2667,12 +2667,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="36"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -2687,12 +2687,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="36"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -2707,27 +2707,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="35"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -2772,6 +2772,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O20:P22"/>
+    <mergeCell ref="Q20:R22"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="E4:F6"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="I4:J6"/>
+    <mergeCell ref="K4:L6"/>
+    <mergeCell ref="J10:L11"/>
+    <mergeCell ref="J14:L15"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="N12:Q15"/>
     <mergeCell ref="C23:R37"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="E20:F22"/>
@@ -2788,18 +2800,6 @@
     <mergeCell ref="Q4:R6"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="J10:L11"/>
-    <mergeCell ref="J14:L15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="N12:Q15"/>
-    <mergeCell ref="O20:P22"/>
-    <mergeCell ref="Q20:R22"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="E4:F6"/>
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="I4:J6"/>
-    <mergeCell ref="K4:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,10 +2837,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -2879,15 +2879,15 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="41" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="30"/>
@@ -2917,11 +2917,11 @@
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -2946,11 +2946,11 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -3000,7 +3000,7 @@
       <c r="C8" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="47" t="s">
@@ -3015,22 +3015,22 @@
         <v>15</v>
       </c>
       <c r="J8" s="49"/>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34" t="s">
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="35"/>
+      <c r="R8" s="43"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
@@ -3038,46 +3038,46 @@
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="36"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="36"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="30"/>
@@ -3094,14 +3094,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="36"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -3116,12 +3116,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="36"/>
+      <c r="R12" s="32"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -3136,12 +3136,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="36"/>
+      <c r="R13" s="32"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -3156,12 +3156,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="36"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="37"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -3176,12 +3176,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="36"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -3196,12 +3196,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -3216,12 +3216,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="36"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -3236,12 +3236,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -3256,12 +3256,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -3276,12 +3276,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -3296,12 +3296,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -3316,12 +3316,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -3336,12 +3336,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -3356,12 +3356,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -3376,12 +3376,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -3396,12 +3396,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -3416,12 +3416,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -3436,12 +3436,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -3456,12 +3456,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="36"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -3476,12 +3476,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="36"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -3496,12 +3496,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -3516,12 +3516,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -3536,12 +3536,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -3556,12 +3556,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="36"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -3576,12 +3576,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="36"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -3596,27 +3596,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="35"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -3661,6 +3661,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M8:N10"/>
+    <mergeCell ref="O8:P10"/>
+    <mergeCell ref="Q8:R10"/>
+    <mergeCell ref="M4:N6"/>
+    <mergeCell ref="O4:P6"/>
+    <mergeCell ref="Q4:R6"/>
     <mergeCell ref="S8:S10"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="R2:R3"/>
@@ -3677,12 +3683,6 @@
     <mergeCell ref="G4:H6"/>
     <mergeCell ref="I4:J6"/>
     <mergeCell ref="K4:L6"/>
-    <mergeCell ref="M8:N10"/>
-    <mergeCell ref="O8:P10"/>
-    <mergeCell ref="Q8:R10"/>
-    <mergeCell ref="M4:N6"/>
-    <mergeCell ref="O4:P6"/>
-    <mergeCell ref="Q4:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3720,10 +3720,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -3769,11 +3769,11 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="30" t="s">
         <v>11</v>
       </c>
@@ -3803,9 +3803,9 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="43"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="51"/>
-      <c r="L5" s="31"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
@@ -3832,9 +3832,9 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="31"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -3880,41 +3880,41 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="44" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="43"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="C9" s="37"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -3923,18 +3923,18 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="36"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="33"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -3943,12 +3943,12 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="36"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="30"/>
@@ -3965,14 +3965,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="36"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -3987,12 +3987,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="36"/>
+      <c r="R12" s="32"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -4007,12 +4007,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="36"/>
+      <c r="R13" s="32"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -4027,12 +4027,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="36"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="37"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4047,12 +4047,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="36"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -4067,12 +4067,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -4087,12 +4087,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="36"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -4107,12 +4107,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -4127,12 +4127,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -4147,12 +4147,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -4167,12 +4167,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -4187,12 +4187,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -4207,12 +4207,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -4227,12 +4227,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -4247,12 +4247,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -4267,12 +4267,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -4287,12 +4287,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -4307,12 +4307,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -4327,12 +4327,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="36"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -4347,12 +4347,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="36"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -4367,12 +4367,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -4387,12 +4387,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -4407,12 +4407,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -4427,12 +4427,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="36"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -4447,12 +4447,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="36"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -4467,27 +4467,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="35"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O4" sqref="O4:P6"/>
     </sheetView>
   </sheetViews>
@@ -4585,10 +4585,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -4628,7 +4628,7 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="52" t="s">
         <v>10</v>
       </c>
@@ -4641,10 +4641,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="30"/>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="31"/>
+      <c r="R4" s="44"/>
       <c r="S4" s="10"/>
       <c r="U4" s="29" t="s">
         <v>47</v>
@@ -4662,15 +4662,15 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="43"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
       <c r="S5" s="10"/>
       <c r="U5" s="29" t="s">
         <v>46</v>
@@ -4688,15 +4688,15 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="52"/>
       <c r="L6" s="53"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="10"/>
       <c r="U6" s="29" t="s">
         <v>48</v>
@@ -4739,35 +4739,35 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="43"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="C9" s="37"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -4782,12 +4782,12 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="36"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -4802,12 +4802,12 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="36"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="30"/>
@@ -4824,14 +4824,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="36"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -4846,12 +4846,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="36"/>
+      <c r="R12" s="32"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -4866,12 +4866,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="36"/>
+      <c r="R13" s="32"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -4886,12 +4886,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="36"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="37"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4906,12 +4906,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="36"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -4926,12 +4926,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -4946,12 +4946,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="36"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -4966,12 +4966,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -4986,12 +4986,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -5006,12 +5006,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -5026,12 +5026,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -5046,12 +5046,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -5066,12 +5066,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -5086,12 +5086,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -5106,12 +5106,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -5126,12 +5126,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -5146,12 +5146,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -5166,12 +5166,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -5186,12 +5186,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="36"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -5206,12 +5206,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="36"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -5226,12 +5226,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -5246,12 +5246,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -5266,12 +5266,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -5286,12 +5286,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="36"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -5306,12 +5306,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="36"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -5326,27 +5326,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="35"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -5444,10 +5444,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -5493,15 +5493,15 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="52" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="53"/>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="31"/>
+      <c r="N4" s="44"/>
       <c r="O4" s="30" t="s">
         <v>12</v>
       </c>
@@ -5530,11 +5530,11 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="43"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="53"/>
@@ -5559,11 +5559,11 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="52"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="53"/>
@@ -5607,33 +5607,33 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="43"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="C9" s="37"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -5648,12 +5648,12 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="36"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -5668,12 +5668,12 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="36"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="30"/>
@@ -5690,14 +5690,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="36"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -5712,12 +5712,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="36"/>
+      <c r="R12" s="32"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -5732,12 +5732,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="36"/>
+      <c r="R13" s="32"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -5752,12 +5752,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="36"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="37"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -5772,12 +5772,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="36"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -5792,12 +5792,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -5812,12 +5812,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="36"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -5832,12 +5832,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -5852,12 +5852,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -5872,12 +5872,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -5892,12 +5892,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -5912,12 +5912,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -5932,12 +5932,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -5952,12 +5952,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -5972,12 +5972,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -5992,12 +5992,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -6012,12 +6012,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -6032,12 +6032,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -6052,12 +6052,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="36"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -6072,12 +6072,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="36"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -6092,12 +6092,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -6112,12 +6112,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -6132,12 +6132,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -6152,12 +6152,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="36"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -6172,12 +6172,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="36"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -6192,27 +6192,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="35"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -6310,10 +6310,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="6"/>
@@ -6353,7 +6353,7 @@
       <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="52" t="s">
         <v>10</v>
       </c>
@@ -6362,10 +6362,10 @@
         <v>11</v>
       </c>
       <c r="N4" s="53"/>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="31"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="53" t="s">
         <v>13</v>
       </c>
@@ -6387,13 +6387,13 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="43"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
       <c r="S5" s="10"/>
@@ -6416,13 +6416,13 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="52"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="10"/>
@@ -6473,32 +6473,32 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="34"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="30"/>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
       <c r="S8" s="46" t="s">
         <v>44</v>
       </c>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="30"/>
@@ -6562,14 +6562,14 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="36"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -6584,12 +6584,12 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="36"/>
+      <c r="R12" s="32"/>
       <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -6604,12 +6604,12 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="36"/>
+      <c r="R13" s="32"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -6624,12 +6624,12 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="36"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="37"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -6644,12 +6644,12 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="36"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -6664,12 +6664,12 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -6684,12 +6684,12 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="36"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -6704,12 +6704,12 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -6724,12 +6724,12 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -6744,12 +6744,12 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -6764,12 +6764,12 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -6784,12 +6784,12 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -6804,12 +6804,12 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -6824,12 +6824,12 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -6844,12 +6844,12 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -6864,12 +6864,12 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -6884,12 +6884,12 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -6904,12 +6904,12 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -6924,12 +6924,12 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="36"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -6944,12 +6944,12 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="36"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -6964,12 +6964,12 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -6984,12 +6984,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -7004,12 +7004,12 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -7024,12 +7024,12 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="36"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -7044,12 +7044,12 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="36"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -7064,27 +7064,27 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="35"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -7128,10 +7128,10 @@
       <c r="S39" s="18"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="K44" s="30"/>
@@ -7147,6 +7147,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K43:N45"/>
+    <mergeCell ref="G8:J10"/>
+    <mergeCell ref="K8:L10"/>
+    <mergeCell ref="M8:N10"/>
+    <mergeCell ref="O8:P10"/>
     <mergeCell ref="S8:S10"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="R2:R3"/>
@@ -7162,11 +7167,6 @@
     <mergeCell ref="Q8:R10"/>
     <mergeCell ref="C11:R37"/>
     <mergeCell ref="C8:F10"/>
-    <mergeCell ref="K43:N45"/>
-    <mergeCell ref="G8:J10"/>
-    <mergeCell ref="K8:L10"/>
-    <mergeCell ref="M8:N10"/>
-    <mergeCell ref="O8:P10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
